--- a/Excel/Excels/MultiLanguage/MultiLangInfo_Meta.xlsx
+++ b/Excel/Excels/MultiLanguage/MultiLangInfo_Meta.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
   <si>
     <t xml:space="preserve">MultiLangInfo_Meta</t>
   </si>
